--- a/Input/Validacao_output_v1.xlsx
+++ b/Input/Validacao_output_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Suape_2017 RT" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="17">
   <si>
     <t>Caso</t>
   </si>
@@ -133,7 +133,403 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="300">
+  <dxfs count="333">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4027,7 +4423,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4336,7 +4732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4345,33 +4741,43 @@
         <v>OK</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
+        <v>NOK</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:K8" si="3">IF(
+   $C8="NOK",
+   "NOK",
+   ""
+)</f>
+        <v>NOK</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>OK</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
+        <v>NOK</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -4393,7 +4799,7 @@
         <v>NOK</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E3:E29" si="3">IF(
+        <f t="shared" ref="E9:E28" si="4">IF(
    $C9="NOK",
    "NOK",
    ""
@@ -4401,7 +4807,7 @@
         <v>NOK</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ref="F2:K29" si="4">IF(
+        <f t="shared" ref="F9:K28" si="5">IF(
    $C9="NOK",
    "NOK",
    ""
@@ -4409,11 +4815,11 @@
         <v>NOK</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I9" t="str">
@@ -4421,11 +4827,11 @@
         <v>NOK</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4521,19 +4927,19 @@
         <v>NOK</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I12" t="str">
@@ -4541,11 +4947,11 @@
         <v>NOK</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4679,19 +5085,19 @@
         <v>NOK</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I16" t="str">
@@ -4699,11 +5105,11 @@
         <v>NOK</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4723,19 +5129,19 @@
         <v>NOK</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I17" t="str">
@@ -4743,11 +5149,11 @@
         <v>NOK</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4843,19 +5249,19 @@
         <v>NOK</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I20" t="str">
@@ -4863,11 +5269,11 @@
         <v>NOK</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4887,19 +5293,19 @@
         <v>NOK</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I21" t="str">
@@ -4907,11 +5313,11 @@
         <v>NOK</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -4931,19 +5337,19 @@
         <v>NOK</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I22" t="str">
@@ -4951,11 +5357,11 @@
         <v>NOK</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -5016,7 +5422,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:D29" si="5">IF(
+        <f t="shared" ref="D24:D29" si="6">IF(
    AND(OR(E24="OK",E24="Atenção"),OR(F24="OK",F24="Atenção"),OR(G24="OK",G24="Atenção")),
    "OK",
    "NOK"
@@ -5058,23 +5464,23 @@
         <v>3</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NOK</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I25" t="str">
@@ -5082,11 +5488,11 @@
         <v>NOK</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -5102,23 +5508,23 @@
         <v>3</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NOK</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I26" t="str">
@@ -5126,11 +5532,11 @@
         <v>NOK</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -5146,7 +5552,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="E27" t="s">
@@ -5184,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28" si="6">IF(
+        <f t="shared" ref="D28" si="7">IF(
    AND(OR(E28="OK",E28="Atenção"),OR(F28="OK",F28="Atenção"),OR(G28="OK",G28="Atenção")),
    "OK",
    "NOK"
@@ -5192,23 +5598,23 @@
         <v>NOK</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" ref="I28" si="7">IF(
+        <f t="shared" ref="I28" si="8">IF(
    AND(J28="OK",K28="OK"),
    "OK",
    "NOK"
@@ -5216,11 +5622,11 @@
         <v>NOK</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -5236,7 +5642,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="E29" t="s">
@@ -5264,101 +5670,266 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L7:L9 L11:L14 L16 L18:L20 L23:L25 L27:L28 B1:B1048576 L2:L3 B2:K29">
-    <cfRule type="cellIs" dxfId="299" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="73" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="74" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="75" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="296" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="67" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="68" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="69" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="293" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="64" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="65" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="290" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="61" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="62" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="63" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="287" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="58" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="59" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="284" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="55" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="56" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="57" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="281" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="52" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="53" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="278" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="49" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="50" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="51" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="275" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="46" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="47" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="48" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:I8">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="83" priority="40" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="41" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="42" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="77" priority="37" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:J8">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J8">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="59" priority="28" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:J8">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J8">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:K8">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:K8">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Atenção"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5376,8 +5947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -5386,9 +5957,9 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="15" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5435,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(
+        <f t="shared" ref="B2:B23" si="0">IF(
    C2="NOK",
    "OK",
    IF(
@@ -5450,7 +6021,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D23" si="0">IF(
+        <f t="shared" ref="D2:D23" si="1">IF(
    AND(OR(E2="OK",E2="Atenção"),OR(F2="OK",F2="Atenção"),OR(G2="OK",G2="Atenção")),
    "OK",
    "NOK"
@@ -5466,7 +6037,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:K20" si="1">IF(
+        <f t="shared" ref="F2:K20" si="2">IF(
    $C2="NOK",
    "NOK",
    ""
@@ -5474,11 +6045,11 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I2" t="str">
@@ -5490,11 +6061,11 @@
         <v>NOK</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5503,26 +6074,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(
-   C3="NOK",
-   "OK",
-   IF(
-      AND(C3="OK",D3="OK",H3="OK",I3="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:K21" si="2">IF(
+        <f t="shared" ref="E3:K21" si="3">IF(
    $C3="NOK",
    "NOK",
    ""
@@ -5530,19 +6093,19 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I29" si="3">IF(
+        <f t="shared" ref="I3:I23" si="4">IF(
    AND(J3="OK",K3="OK"),
    "OK",
    "NOK"
@@ -5550,11 +6113,11 @@
         <v>NOK</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5563,50 +6126,42 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(
-   C4="NOK",
-   "OK",
-   IF(
-      AND(C4="OK",D4="OK",H4="OK",I4="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5615,50 +6170,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(
-   C5="NOK",
-   "OK",
-   IF(
-      AND(C5="OK",D5="OK",H5="OK",I5="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5667,50 +6214,42 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(
-   C6="NOK",
-   "OK",
-   IF(
-      AND(C6="OK",D6="OK",H6="OK",I6="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5719,50 +6258,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(
-   C7="NOK",
-   "OK",
-   IF(
-      AND(C7="OK",D7="OK",H7="OK",I7="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5771,50 +6302,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(
-   C8="NOK",
-   "OK",
-   IF(
-      AND(C8="OK",D8="OK",H8="OK",I8="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5823,50 +6346,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(
-   C9="NOK",
-   "OK",
-   IF(
-      AND(C9="OK",D9="OK",H9="OK",I9="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5875,50 +6390,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(
-   C10="NOK",
-   "OK",
-   IF(
-      AND(C10="OK",D10="OK",H10="OK",I10="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5927,50 +6434,42 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(
-   C11="NOK",
-   "OK",
-   IF(
-      AND(C11="OK",D11="OK",H11="OK",I11="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5979,50 +6478,42 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(
-   C12="NOK",
-   "OK",
-   IF(
-      AND(C12="OK",D12="OK",H12="OK",I12="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6031,50 +6522,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(
-   C13="NOK",
-   "OK",
-   IF(
-      AND(C13="OK",D13="OK",H13="OK",I13="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6083,50 +6566,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(
-   C14="NOK",
-   "OK",
-   IF(
-      AND(C14="OK",D14="OK",H14="OK",I14="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6135,50 +6610,42 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(
-   C15="NOK",
-   "OK",
-   IF(
-      AND(C15="OK",D15="OK",H15="OK",I15="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6187,50 +6654,42 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(
-   C16="NOK",
-   "OK",
-   IF(
-      AND(C16="OK",D16="OK",H16="OK",I16="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6239,50 +6698,42 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>IF(
-   C17="NOK",
-   "OK",
-   IF(
-      AND(C17="OK",D17="OK",H17="OK",I17="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6291,50 +6742,42 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>IF(
-   C18="NOK",
-   "OK",
-   IF(
-      AND(C18="OK",D18="OK",H18="OK",I18="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -6343,50 +6786,42 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>IF(
-   C19="NOK",
-   "OK",
-   IF(
-      AND(C19="OK",D19="OK",H19="OK",I19="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -6395,50 +6830,42 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>IF(
-   C20="NOK",
-   "OK",
-   IF(
-      AND(C20="OK",D20="OK",H20="OK",I20="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6447,50 +6874,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(
-   C21="NOK",
-   "OK",
-   IF(
-      AND(C21="OK",D21="OK",H21="OK",I21="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -6499,26 +6918,18 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(
-   C22="NOK",
-   "OK",
-   IF(
-      AND(C22="OK",D22="OK",H22="OK",I22="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ref="E22:K29" si="4">IF(
+        <f t="shared" ref="E22:K29" si="5">IF(
    $C22="NOK",
    "NOK",
    ""
@@ -6526,27 +6937,27 @@
         <v/>
       </c>
       <c r="F22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6555,243 +6966,235 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(
-   C23="NOK",
-   "OK",
-   IF(
-      AND(C23="OK",D23="OK",H23="OK",I23="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:E1048576 L3 L7:L9 L11:L19 B2:K23">
-    <cfRule type="cellIs" dxfId="272" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="91" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="92" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="93" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L22">
-    <cfRule type="cellIs" dxfId="269" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="49" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="50" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="51" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="266" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="31" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="32" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="263" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="28" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="29" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="260" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="25" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="26" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="27" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K29">
-    <cfRule type="cellIs" dxfId="257" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="19" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="20" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I29">
-    <cfRule type="cellIs" dxfId="254" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="16" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="17" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B23">
-    <cfRule type="cellIs" dxfId="158" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="13" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="14" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="10" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="11" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C23">
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="7" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="8" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="4" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D23">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="1" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6809,7 +7212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
@@ -6817,10 +7222,11 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6866,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(
+        <f t="shared" ref="B2:B17" si="0">IF(
    C2="NOK",
    "OK",
    IF(
@@ -6881,7 +7287,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D17" si="0">IF(
+        <f t="shared" ref="D2:D17" si="1">IF(
    AND(OR(E2="OK",E2="Atenção"),OR(F2="OK",F2="Atenção"),OR(G2="OK",G2="Atenção")),
    "OK",
    "NOK"
@@ -6897,7 +7303,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:K17" si="1">IF(
+        <f t="shared" ref="F2:K17" si="2">IF(
    $C2="NOK",
    "NOK",
    ""
@@ -6905,11 +7311,11 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I2" t="str">
@@ -6921,11 +7327,11 @@
         <v>NOK</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6934,26 +7340,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(
-   C3="NOK",
-   "OK",
-   IF(
-      AND(C3="OK",D3="OK",H3="OK",I3="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="2">IF(
+        <f t="shared" ref="E3:E17" si="3">IF(
    $C3="NOK",
    "NOK",
    ""
@@ -6961,19 +7359,19 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I29" si="3">IF(
+        <f t="shared" ref="I3:I17" si="4">IF(
    AND(J3="OK",K3="OK"),
    "OK",
    "NOK"
@@ -6981,11 +7379,11 @@
         <v>NOK</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -6994,50 +7392,42 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(
-   C4="NOK",
-   "OK",
-   IF(
-      AND(C4="OK",D4="OK",H4="OK",I4="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7046,50 +7436,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(
-   C5="NOK",
-   "OK",
-   IF(
-      AND(C5="OK",D5="OK",H5="OK",I5="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7098,50 +7480,42 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(
-   C6="NOK",
-   "OK",
-   IF(
-      AND(C6="OK",D6="OK",H6="OK",I6="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7150,50 +7524,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(
-   C7="NOK",
-   "OK",
-   IF(
-      AND(C7="OK",D7="OK",H7="OK",I7="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7202,50 +7568,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(
-   C8="NOK",
-   "OK",
-   IF(
-      AND(C8="OK",D8="OK",H8="OK",I8="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7254,50 +7612,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(
-   C9="NOK",
-   "OK",
-   IF(
-      AND(C9="OK",D9="OK",H9="OK",I9="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7306,50 +7656,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(
-   C10="NOK",
-   "OK",
-   IF(
-      AND(C10="OK",D10="OK",H10="OK",I10="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7358,50 +7700,42 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(
-   C11="NOK",
-   "OK",
-   IF(
-      AND(C11="OK",D11="OK",H11="OK",I11="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7410,50 +7744,42 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(
-   C12="NOK",
-   "OK",
-   IF(
-      AND(C12="OK",D12="OK",H12="OK",I12="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7462,50 +7788,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(
-   C13="NOK",
-   "OK",
-   IF(
-      AND(C13="OK",D13="OK",H13="OK",I13="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7514,50 +7832,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(
-   C14="NOK",
-   "OK",
-   IF(
-      AND(C14="OK",D14="OK",H14="OK",I14="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7566,50 +7876,42 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(
-   C15="NOK",
-   "OK",
-   IF(
-      AND(C15="OK",D15="OK",H15="OK",I15="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7618,50 +7920,42 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(
-   C16="NOK",
-   "OK",
-   IF(
-      AND(C16="OK",D16="OK",H16="OK",I16="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -7670,56 +7964,48 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>IF(
-   C17="NOK",
-   "OK",
-   IF(
-      AND(C17="OK",D17="OK",H17="OK",I17="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
     <row r="18" spans="1:11" collapsed="1">
       <c r="J18" t="str">
-        <f t="shared" ref="J18:K36" si="4">IF(
+        <f t="shared" ref="J18:K29" si="5">IF(
    $C18="NOK",
    "NOK",
    ""
@@ -7727,250 +8013,250 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:B1048576 L6:L9 B1:E17 L2:L3 B7:L17 B2:K17">
-    <cfRule type="cellIs" dxfId="251" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="79" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="80" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="81" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="248" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="31" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="32" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K23">
-    <cfRule type="cellIs" dxfId="245" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="28" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="29" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K29">
-    <cfRule type="cellIs" dxfId="242" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="25" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="26" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="27" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I23">
-    <cfRule type="cellIs" dxfId="239" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="22" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="23" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I29">
-    <cfRule type="cellIs" dxfId="236" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="19" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="20" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="155" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="16" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="17" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="152" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="13" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="14" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C5">
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="10" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="11" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="7" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="8" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="4" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="1" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,7 +8275,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -7997,11 +8283,12 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8047,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(
+        <f t="shared" ref="B2:B25" si="0">IF(
    C2="NOK",
    "OK",
    IF(
@@ -8062,7 +8349,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D25" si="0">IF(
+        <f t="shared" ref="D2:D25" si="1">IF(
    AND(OR(E2="OK",E2="Atenção"),OR(F2="OK",F2="Atenção"),OR(G2="OK",G2="Atenção")),
    "OK",
    "NOK"
@@ -8078,7 +8365,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:K18" si="1">IF(
+        <f t="shared" ref="F2:K18" si="2">IF(
    $C2="NOK",
    "NOK",
    ""
@@ -8086,11 +8373,11 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I2" t="str">
@@ -8102,11 +8389,11 @@
         <v>NOK</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8115,26 +8402,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(
-   C3="NOK",
-   "OK",
-   IF(
-      AND(C3="OK",D3="OK",H3="OK",I3="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:K19" si="2">IF(
+        <f t="shared" ref="E3:K19" si="3">IF(
    $C3="NOK",
    "NOK",
    ""
@@ -8142,19 +8421,19 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I29" si="3">IF(
+        <f t="shared" ref="I3:I25" si="4">IF(
    AND(J3="OK",K3="OK"),
    "OK",
    "NOK"
@@ -8162,11 +8441,11 @@
         <v>NOK</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8175,50 +8454,42 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(
-   C4="NOK",
-   "OK",
-   IF(
-      AND(C4="OK",D4="OK",H4="OK",I4="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8227,50 +8498,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(
-   C5="NOK",
-   "OK",
-   IF(
-      AND(C5="OK",D5="OK",H5="OK",I5="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8279,50 +8542,42 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(
-   C6="NOK",
-   "OK",
-   IF(
-      AND(C6="OK",D6="OK",H6="OK",I6="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8331,50 +8586,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(
-   C7="NOK",
-   "OK",
-   IF(
-      AND(C7="OK",D7="OK",H7="OK",I7="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8383,50 +8630,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(
-   C8="NOK",
-   "OK",
-   IF(
-      AND(C8="OK",D8="OK",H8="OK",I8="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8435,50 +8674,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(
-   C9="NOK",
-   "OK",
-   IF(
-      AND(C9="OK",D9="OK",H9="OK",I9="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8487,50 +8718,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(
-   C10="NOK",
-   "OK",
-   IF(
-      AND(C10="OK",D10="OK",H10="OK",I10="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8539,154 +8762,130 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(
-   C11="NOK",
-   "OK",
-   IF(
-      AND(C11="OK",D11="OK",H11="OK",I11="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>NOK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" collapsed="1">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(
-   C12="NOK",
-   "OK",
-   IF(
-      AND(C12="OK",D12="OK",H12="OK",I12="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" collapsed="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(
-   C13="NOK",
-   "OK",
-   IF(
-      AND(C13="OK",D13="OK",H13="OK",I13="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8695,50 +8894,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(
-   C14="NOK",
-   "OK",
-   IF(
-      AND(C14="OK",D14="OK",H14="OK",I14="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8747,50 +8938,42 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(
-   C15="NOK",
-   "OK",
-   IF(
-      AND(C15="OK",D15="OK",H15="OK",I15="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8799,50 +8982,42 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(
-   C16="NOK",
-   "OK",
-   IF(
-      AND(C16="OK",D16="OK",H16="OK",I16="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8851,50 +9026,42 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>IF(
-   C17="NOK",
-   "OK",
-   IF(
-      AND(C17="OK",D17="OK",H17="OK",I17="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8903,159 +9070,135 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>IF(
-   C18="NOK",
-   "OK",
-   IF(
-      AND(C18="OK",D18="OK",H18="OK",I18="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>IF(
-   C19="NOK",
-   "OK",
-   IF(
-      AND(C19="OK",D19="OK",H19="OK",I19="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" outlineLevel="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>IF(
-   C20="NOK",
-   "OK",
-   IF(
-      AND(C20="OK",D20="OK",H20="OK",I20="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ref="E20:K29" si="4">IF(
+        <f t="shared" ref="E20:K29" si="5">IF(
    $C20="NOK",
    "NOK",
    ""
 )</f>
-        <v/>
+        <v>NOK</v>
       </c>
       <c r="F20" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>NOK</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>NOK</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" outlineLevel="1">
@@ -9063,50 +9206,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(
-   C21="NOK",
-   "OK",
-   IF(
-      AND(C21="OK",D21="OK",H21="OK",I21="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -9115,50 +9250,42 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(
-   C22="NOK",
-   "OK",
-   IF(
-      AND(C22="OK",D22="OK",H22="OK",I22="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -9167,50 +9294,42 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(
-   C23="NOK",
-   "OK",
-   IF(
-      AND(C23="OK",D23="OK",H23="OK",I23="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -9219,50 +9338,42 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>IF(
-   C24="NOK",
-   "OK",
-   IF(
-      AND(C24="OK",D24="OK",H24="OK",I24="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -9271,90 +9382,82 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>IF(
-   C25="NOK",
-   "OK",
-   IF(
-      AND(C25="OK",D25="OK",H25="OK",I25="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E25" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
     <row r="26" spans="1:11" collapsed="1">
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9470,90 +9573,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="cellIs" dxfId="149" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="22" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="23" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="cellIs" dxfId="146" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="19" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="20" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="cellIs" dxfId="119" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="16" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="17" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C20">
-    <cfRule type="cellIs" dxfId="116" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="13" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="14" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="cellIs" dxfId="68" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="10" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="11" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="7" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="8" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="4" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="1" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9571,18 +9674,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9628,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>IF(
+        <f t="shared" ref="B2:B24" si="0">IF(
    C2="NOK",
    "OK",
    IF(
@@ -9643,7 +9749,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D24" si="0">IF(
+        <f t="shared" ref="D2:D24" si="1">IF(
    AND(OR(E2="OK",E2="Atenção"),OR(F2="OK",F2="Atenção"),OR(G2="OK",G2="Atenção")),
    "OK",
    "NOK"
@@ -9659,7 +9765,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:K18" si="1">IF(
+        <f t="shared" ref="F2:K18" si="2">IF(
    $C2="NOK",
    "NOK",
    ""
@@ -9667,11 +9773,11 @@
         <v/>
       </c>
       <c r="G2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I2" t="str">
@@ -9683,11 +9789,11 @@
         <v>NOK</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9696,26 +9802,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>IF(
-   C3="NOK",
-   "OK",
-   IF(
-      AND(C3="OK",D3="OK",H3="OK",I3="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:K19" si="2">IF(
+        <f t="shared" ref="E3:K19" si="3">IF(
    $C3="NOK",
    "NOK",
    ""
@@ -9723,19 +9821,19 @@
         <v/>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I29" si="3">IF(
+        <f t="shared" ref="I3:I24" si="4">IF(
    AND(J3="OK",K3="OK"),
    "OK",
    "NOK"
@@ -9743,11 +9841,11 @@
         <v>NOK</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9756,50 +9854,42 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>IF(
-   C4="NOK",
-   "OK",
-   IF(
-      AND(C4="OK",D4="OK",H4="OK",I4="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9808,50 +9898,42 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>IF(
-   C5="NOK",
-   "OK",
-   IF(
-      AND(C5="OK",D5="OK",H5="OK",I5="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9860,50 +9942,42 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>IF(
-   C6="NOK",
-   "OK",
-   IF(
-      AND(C6="OK",D6="OK",H6="OK",I6="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9912,50 +9986,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>IF(
-   C7="NOK",
-   "OK",
-   IF(
-      AND(C7="OK",D7="OK",H7="OK",I7="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9964,50 +10030,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>IF(
-   C8="NOK",
-   "OK",
-   IF(
-      AND(C8="OK",D8="OK",H8="OK",I8="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10016,50 +10074,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>IF(
-   C9="NOK",
-   "OK",
-   IF(
-      AND(C9="OK",D9="OK",H9="OK",I9="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10068,154 +10118,130 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>IF(
-   C10="NOK",
-   "OK",
-   IF(
-      AND(C10="OK",D10="OK",H10="OK",I10="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" outlineLevel="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>IF(
-   C11="NOK",
-   "OK",
-   IF(
-      AND(C11="OK",D11="OK",H11="OK",I11="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <f t="shared" si="2"/>
+        <v>NOK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" collapsed="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>IF(
-   C12="NOK",
-   "OK",
-   IF(
-      AND(C12="OK",D12="OK",H12="OK",I12="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10224,50 +10250,42 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(
-   C13="NOK",
-   "OK",
-   IF(
-      AND(C13="OK",D13="OK",H13="OK",I13="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -10276,51 +10294,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(
-   C14="NOK",
-   "OK",
-   IF(
-      AND(C14="OK",D14="OK",H14="OK",I14="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -10328,51 +10338,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>IF(
-   C15="NOK",
-   "OK",
-   IF(
-      AND(C15="OK",D15="OK",H15="OK",I15="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -10380,51 +10382,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>IF(
-   C16="NOK",
-   "OK",
-   IF(
-      AND(C16="OK",D16="OK",H16="OK",I16="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>NOK</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" outlineLevel="1">
@@ -10432,50 +10426,42 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>IF(
-   C17="NOK",
-   "OK",
-   IF(
-      AND(C17="OK",D17="OK",H17="OK",I17="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10484,50 +10470,42 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>IF(
-   C18="NOK",
-   "OK",
-   IF(
-      AND(C18="OK",D18="OK",H18="OK",I18="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10536,50 +10514,42 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>IF(
-   C19="NOK",
-   "OK",
-   IF(
-      AND(C19="OK",D19="OK",H19="OK",I19="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
-      <c r="J19" t="str">
-        <f t="shared" si="2"/>
-        <v>NOK</v>
-      </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10588,26 +10558,18 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>IF(
-   C20="NOK",
-   "OK",
-   IF(
-      AND(C20="OK",D20="OK",H20="OK",I20="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>NOK</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ref="E20:K29" si="4">IF(
+        <f t="shared" ref="E20:K29" si="5">IF(
    $C20="NOK",
    "NOK",
    ""
@@ -10615,27 +10577,27 @@
         <v/>
       </c>
       <c r="F20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10644,50 +10606,42 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>IF(
-   C21="NOK",
-   "OK",
-   IF(
-      AND(C21="OK",D21="OK",H21="OK",I21="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10696,51 +10650,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>IF(
-   C22="NOK",
-   "OK",
-   IF(
-      AND(C22="OK",D22="OK",H22="OK",I22="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
-        <v>NOK</v>
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>NOK</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>NOK</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" outlineLevel="1">
@@ -10748,50 +10694,42 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(
-   C23="NOK",
-   "OK",
-   IF(
-      AND(C23="OK",D23="OK",H23="OK",I23="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
@@ -10800,105 +10738,97 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>IF(
-   C24="NOK",
-   "OK",
-   IF(
-      AND(C24="OK",D24="OK",H24="OK",I24="OK"),
-      "OK",
-      "NOK"
-   )
-)</f>
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>NOK</v>
       </c>
       <c r="E24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NOK</v>
       </c>
     </row>
     <row r="25" spans="1:11" collapsed="1">
       <c r="I25" s="4"/>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="I26" s="4"/>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="I27" s="4"/>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="I28" s="4"/>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="I29" s="4"/>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10907,332 +10837,332 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:E2 B7:E1048576 B3:L7 C1:D1048576 B9:L16 B18:L24 F2:L2 C1:E17 L2:L3 C2:K24 C3:L24">
-    <cfRule type="cellIs" dxfId="203" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="133" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="134" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="135" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="200" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="85" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="86" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="87" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="197" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="82" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="83" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="84" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="194" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="79" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="80" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="81" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="191" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="76" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="77" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="78" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="188" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="73" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="74" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="75" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="185" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="70" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="71" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="72" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K25">
-    <cfRule type="cellIs" dxfId="182" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="67" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="68" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="69" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K17">
-    <cfRule type="cellIs" dxfId="179" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="64" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="65" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="66" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="cellIs" dxfId="176" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="61" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="62" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="63" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K25">
-    <cfRule type="cellIs" dxfId="173" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="58" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="59" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="60" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K17">
-    <cfRule type="cellIs" dxfId="170" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="55" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="56" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="57" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K23">
-    <cfRule type="cellIs" dxfId="167" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="52" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="53" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="54" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K29">
-    <cfRule type="cellIs" dxfId="164" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="49" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="50" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="51" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I29">
-    <cfRule type="cellIs" dxfId="161" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="46" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="47" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="48" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="143" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="43" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="44" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="45" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="140" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="40" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="41" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="42" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="37" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="38" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="39" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="34" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="35" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="36" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="31" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="32" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="33" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7">
-    <cfRule type="cellIs" dxfId="113" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="28" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="29" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="30" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C16">
-    <cfRule type="cellIs" dxfId="110" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="25" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="26" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="27" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="107" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="22" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="23" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="24" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="104" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="19" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="18" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="14" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="15" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
       <formula>"Atenção"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
